--- a/data/trans_orig/P21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4A064CC-09F4-42AE-B9FA-67C7CE31A566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6A8FC9-9E9C-4C8A-A7FA-44C6889D1EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3E0ABD24-8357-4786-AEB2-93CF69F4AF78}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D23C9C2-B0B9-4535-905B-35FCA604DB45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="577">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>Sí acudieron a mi domicilio</t>
@@ -125,28 +125,28 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>16,78%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -158,1627 +158,1618 @@
     <t>83,29%</t>
   </si>
   <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
     <t>80,28%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
   </si>
   <si>
     <t>77,7%</t>
   </si>
   <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>15,59%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>23,06%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -2190,7 +2181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416666DE-58C0-40A0-856A-956BF3D6E5A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146FED9D-CD8A-43D0-8A70-E8518B02B2E4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2607,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2613,13 @@
         <v>95806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -2637,13 +2628,13 @@
         <v>111509</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -2652,13 +2643,13 @@
         <v>207315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,7 +2705,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2726,13 +2717,13 @@
         <v>775181</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>640</v>
@@ -2741,13 +2732,13 @@
         <v>684461</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1363</v>
@@ -2756,13 +2747,13 @@
         <v>1459642</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2768,13 @@
         <v>8762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2792,13 +2783,13 @@
         <v>9977</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2807,13 +2798,13 @@
         <v>18739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2819,13 @@
         <v>177857</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
@@ -2843,13 +2834,13 @@
         <v>273954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -2858,13 +2849,13 @@
         <v>451812</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,7 +2911,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2932,13 +2923,13 @@
         <v>554855</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>516</v>
@@ -2947,13 +2938,13 @@
         <v>507302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1040</v>
@@ -2962,13 +2953,13 @@
         <v>1062157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2986,10 +2977,10 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2998,13 +2989,13 @@
         <v>10122</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3013,13 +3004,13 @@
         <v>15718</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3025,13 @@
         <v>118058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>169</v>
@@ -3049,13 +3040,13 @@
         <v>166417</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -3064,13 +3055,13 @@
         <v>284475</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,7 +3117,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3138,13 +3129,13 @@
         <v>804045</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -3153,13 +3144,13 @@
         <v>811170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1626</v>
@@ -3168,13 +3159,13 @@
         <v>1615215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3180,13 @@
         <v>4353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3204,13 +3195,13 @@
         <v>12973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3219,13 +3210,13 @@
         <v>17326</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3231,13 @@
         <v>132939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -3255,13 +3246,13 @@
         <v>214469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -3270,13 +3261,13 @@
         <v>347409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3335,13 @@
         <v>2715312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>2493</v>
@@ -3359,13 +3350,13 @@
         <v>2554248</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>5157</v>
@@ -3374,13 +3365,13 @@
         <v>5269561</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3386,13 @@
         <v>19609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3410,13 +3401,13 @@
         <v>35452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -3425,13 +3416,13 @@
         <v>55062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3437,13 @@
         <v>540737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>769</v>
@@ -3461,13 +3452,13 @@
         <v>788556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1299</v>
@@ -3476,13 +3467,13 @@
         <v>1329293</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,7 +3529,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3559,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F363CBA-0EDE-40BB-A82C-CAB5A8676166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F7D59-F004-4AC2-9BCE-00358EEC5AFA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3567,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3683,13 +3674,13 @@
         <v>86853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3698,13 +3689,13 @@
         <v>83375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -3713,13 +3704,13 @@
         <v>170228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3725,13 @@
         <v>1604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3749,13 +3740,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3764,13 +3755,13 @@
         <v>2735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3776,13 @@
         <v>26581</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3800,13 +3791,13 @@
         <v>27399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3815,13 +3806,13 @@
         <v>53980</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3880,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3904,13 +3895,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3919,13 +3910,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3931,13 @@
         <v>5800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3955,13 +3946,13 @@
         <v>4163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3970,13 +3961,13 @@
         <v>9963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3982,13 @@
         <v>107439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -4006,13 +3997,13 @@
         <v>160693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -4021,13 +4012,13 @@
         <v>268132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,7 +4074,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4095,13 +4086,13 @@
         <v>789038</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H12" s="7">
         <v>670</v>
@@ -4110,13 +4101,13 @@
         <v>731703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M12" s="7">
         <v>1395</v>
@@ -4125,13 +4116,13 @@
         <v>1520741</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4137,13 @@
         <v>7208</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4161,13 +4152,13 @@
         <v>23664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4176,13 +4167,13 @@
         <v>30873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4188,13 @@
         <v>221700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -4212,13 +4203,13 @@
         <v>276817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -4227,13 +4218,13 @@
         <v>498517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,7 +4280,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4301,13 +4292,13 @@
         <v>573801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -4316,13 +4307,13 @@
         <v>518200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>985</v>
@@ -4331,13 +4322,13 @@
         <v>1092001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4343,13 @@
         <v>10599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4367,13 +4358,13 @@
         <v>10559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4382,13 +4373,13 @@
         <v>21157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4394,13 @@
         <v>173223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>220</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -4418,13 +4409,13 @@
         <v>247457</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -4433,13 +4424,13 @@
         <v>420680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,7 +4486,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4507,13 +4498,13 @@
         <v>793382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -4522,13 +4513,13 @@
         <v>822165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M20" s="7">
         <v>1543</v>
@@ -4537,13 +4528,13 @@
         <v>1615547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4549,13 @@
         <v>9854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4573,13 +4564,13 @@
         <v>13773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4588,13 +4579,13 @@
         <v>23627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4600,13 @@
         <v>142549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4624,13 +4615,13 @@
         <v>213816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -4639,13 +4630,13 @@
         <v>356366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4704,13 @@
         <v>2717540</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H24" s="7">
         <v>2387</v>
@@ -4728,28 +4719,28 @@
         <v>2575731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M24" s="7">
         <v>4930</v>
       </c>
       <c r="N24" s="7">
-        <v>5293272</v>
+        <v>5293271</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4755,13 @@
         <v>35064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4779,13 +4770,13 @@
         <v>53290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>210</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4794,13 +4785,13 @@
         <v>88354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4806,13 @@
         <v>671493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H26" s="7">
         <v>859</v>
@@ -4830,28 +4821,28 @@
         <v>926183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M26" s="7">
         <v>1487</v>
       </c>
       <c r="N26" s="7">
-        <v>1597676</v>
+        <v>1597675</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,7 +4884,7 @@
         <v>6501</v>
       </c>
       <c r="N27" s="7">
-        <v>6979302</v>
+        <v>6979301</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4907,7 +4898,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4928,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1FC9BA2-6393-4A82-9DAB-23850AFAA88F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8D9F6-D191-4317-A02F-BE6D1B7FEAC1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4945,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5052,13 +5043,13 @@
         <v>90943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -5067,13 +5058,13 @@
         <v>90170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5082,13 +5073,13 @@
         <v>181114</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5094,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>103</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5124,7 +5115,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5133,13 +5124,13 @@
         <v>2848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5145,13 @@
         <v>23819</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5169,13 +5160,13 @@
         <v>21135</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -5184,13 +5175,13 @@
         <v>44954</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5249,13 @@
         <v>476030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -5273,13 +5264,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5288,13 +5279,13 @@
         <v>917428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5300,13 @@
         <v>10290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5324,13 +5315,13 @@
         <v>7332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -5339,13 +5330,13 @@
         <v>17621</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>50</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5351,13 @@
         <v>70979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -5375,13 +5366,13 @@
         <v>110749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5390,13 +5381,13 @@
         <v>181729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,7 +5443,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5464,13 +5455,13 @@
         <v>842018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H12" s="7">
         <v>774</v>
@@ -5479,13 +5470,13 @@
         <v>822296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>122</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>1562</v>
@@ -5494,13 +5485,13 @@
         <v>1664314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5506,13 @@
         <v>17251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5530,13 +5521,13 @@
         <v>18042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5545,13 +5536,13 @@
         <v>35293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>369</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5557,13 @@
         <v>157335</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H14" s="7">
         <v>185</v>
@@ -5581,13 +5572,13 @@
         <v>199207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -5596,13 +5587,13 @@
         <v>356542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5649,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,13 +5661,13 @@
         <v>630276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="H16" s="7">
         <v>591</v>
@@ -5685,13 +5676,13 @@
         <v>628757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M16" s="7">
         <v>1169</v>
@@ -5700,13 +5691,13 @@
         <v>1259033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5712,13 @@
         <v>6626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5736,13 +5727,13 @@
         <v>10343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5751,13 +5742,13 @@
         <v>16969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>277</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5763,13 @@
         <v>121684</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -5787,13 +5778,13 @@
         <v>144640</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -5802,13 +5793,13 @@
         <v>266324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5855,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5876,13 +5867,13 @@
         <v>779828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>733</v>
@@ -5891,13 +5882,13 @@
         <v>793982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="M20" s="7">
         <v>1511</v>
@@ -5906,13 +5897,13 @@
         <v>1573810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5918,13 @@
         <v>11248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>412</v>
+        <v>162</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5942,13 +5933,13 @@
         <v>22785</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>227</v>
+        <v>420</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>414</v>
+        <v>256</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5957,13 +5948,13 @@
         <v>34032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5969,13 @@
         <v>144565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>31</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -5993,13 +5984,13 @@
         <v>225193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -6008,13 +5999,13 @@
         <v>369758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6073,13 @@
         <v>2819094</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>2625</v>
@@ -6097,13 +6088,13 @@
         <v>2776603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>339</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>5316</v>
@@ -6112,13 +6103,13 @@
         <v>5595699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,10 +6124,10 @@
         <v>46208</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>364</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>23</v>
@@ -6148,13 +6139,13 @@
         <v>60556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -6163,13 +6154,13 @@
         <v>106764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6175,13 @@
         <v>518382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>655</v>
@@ -6199,13 +6190,13 @@
         <v>700924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -6214,13 +6205,13 @@
         <v>1219306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6276,7 +6267,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6297,7 +6288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F701780-FA07-42F5-9F3B-A4EF9F310F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A931DD-118E-400B-B50F-56988EA55C98}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6314,7 +6305,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6421,13 +6412,13 @@
         <v>82073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -6436,13 +6427,13 @@
         <v>109816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M4" s="7">
         <v>295</v>
@@ -6451,13 +6442,13 @@
         <v>191889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,7 +6469,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6487,13 +6478,13 @@
         <v>1708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>459</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6502,13 +6493,13 @@
         <v>1708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>295</v>
+        <v>467</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6514,13 @@
         <v>19909</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -6538,13 +6529,13 @@
         <v>19209</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -6553,13 +6544,13 @@
         <v>39118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6618,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -6642,13 +6633,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>202</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -6657,13 +6648,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6669,13 @@
         <v>1788</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>481</v>
+        <v>395</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6693,13 +6684,13 @@
         <v>2283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>389</v>
+        <v>157</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6708,13 +6699,13 @@
         <v>4071</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>485</v>
+        <v>156</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>486</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,10 +6723,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -6744,13 +6735,13 @@
         <v>126930</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -6759,10 +6750,10 @@
         <v>234804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>451</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>494</v>
@@ -6821,7 +6812,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6884,13 +6875,13 @@
         <v>3910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6899,13 +6890,13 @@
         <v>6437</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6914,13 +6905,13 @@
         <v>10347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>508</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,13 +6926,13 @@
         <v>212089</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -6950,13 +6941,13 @@
         <v>250861</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>561</v>
@@ -6965,13 +6956,13 @@
         <v>462950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>516</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7039,13 +7030,13 @@
         <v>587619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>765</v>
@@ -7054,13 +7045,13 @@
         <v>558519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7069,13 +7060,13 @@
         <v>1146137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7090,13 +7081,13 @@
         <v>5381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7105,13 +7096,13 @@
         <v>2039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>257</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -7120,13 +7111,13 @@
         <v>7420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,13 +7132,13 @@
         <v>135772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -7156,13 +7147,13 @@
         <v>309382</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
@@ -7171,13 +7162,13 @@
         <v>445154</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +7224,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7245,13 +7236,13 @@
         <v>766060</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>1145</v>
@@ -7260,13 +7251,13 @@
         <v>844121</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>544</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>1943</v>
@@ -7275,13 +7266,13 @@
         <v>1610180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>547</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,13 +7287,13 @@
         <v>9539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>368</v>
+        <v>284</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -7311,13 +7302,13 @@
         <v>18888</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>550</v>
+        <v>105</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -7326,13 +7317,13 @@
         <v>28427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>551</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>78</v>
+        <v>545</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,13 +7338,13 @@
         <v>189804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H22" s="7">
         <v>388</v>
@@ -7362,13 +7353,13 @@
         <v>284027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -7377,13 +7368,13 @@
         <v>473832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,13 +7442,13 @@
         <v>2697221</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>475</v>
+        <v>557</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>4043</v>
@@ -7466,13 +7457,13 @@
         <v>2776461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>6723</v>
@@ -7481,13 +7472,13 @@
         <v>5473682</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>545</v>
+        <v>230</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,13 +7493,13 @@
         <v>20619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -7517,13 +7508,13 @@
         <v>31355</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>505</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -7532,13 +7523,13 @@
         <v>51974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7544,13 @@
         <v>665449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>573</v>
+        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>1264</v>
@@ -7568,13 +7559,13 @@
         <v>990409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>1934</v>
@@ -7583,13 +7574,13 @@
         <v>1655858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7636,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6A8FC9-9E9C-4C8A-A7FA-44C6889D1EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CF4215-F3D3-47F2-9121-1B30DA9D1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D23C9C2-B0B9-4535-905B-35FCA604DB45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755B0A42-E414-42C3-AF49-3CF3974C2840}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="576">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -77,1681 +77,1678 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>78,02%</t>
   </si>
   <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>21,24%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2015 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
   </si>
   <si>
     <t>26,08%</t>
@@ -2181,7 +2178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146FED9D-CD8A-43D0-8A70-E8518B02B2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC1E23-7761-4A43-8E2C-C73D836C2085}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3198,10 +3195,10 @@
         <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3210,13 +3207,13 @@
         <v>17326</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3228,13 @@
         <v>132939</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -3246,13 +3243,13 @@
         <v>214469</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -3261,13 +3258,13 @@
         <v>347409</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3332,13 @@
         <v>2715312</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>2493</v>
@@ -3350,13 +3347,13 @@
         <v>2554248</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>5157</v>
@@ -3365,13 +3362,13 @@
         <v>5269561</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3383,13 @@
         <v>19609</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3401,13 +3398,13 @@
         <v>35452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -3416,13 +3413,13 @@
         <v>55062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3434,13 @@
         <v>540737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>769</v>
@@ -3452,13 +3449,13 @@
         <v>788556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>1299</v>
@@ -3467,13 +3464,13 @@
         <v>1329293</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,7 +3526,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6F7D59-F004-4AC2-9BCE-00358EEC5AFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F38548F-9502-4A8C-A66A-ED16319B588E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3567,7 +3564,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3674,13 +3671,13 @@
         <v>86853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3689,13 +3686,13 @@
         <v>83375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>165</v>
@@ -3704,13 +3701,13 @@
         <v>170228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3722,13 @@
         <v>1604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3740,13 +3737,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3755,13 +3752,13 @@
         <v>2735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3773,13 @@
         <v>26581</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3791,13 +3788,13 @@
         <v>27399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3806,13 +3803,13 @@
         <v>53980</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3877,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3895,13 +3892,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3910,13 +3907,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3928,13 @@
         <v>5800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3946,13 +3943,13 @@
         <v>4163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3961,13 +3958,13 @@
         <v>9963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3979,13 @@
         <v>107439</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -3997,13 +3994,13 @@
         <v>160693</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -4012,13 +4009,13 @@
         <v>268132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4083,13 @@
         <v>789038</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>223</v>
+        <v>97</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>670</v>
@@ -4101,13 +4098,13 @@
         <v>731703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>1395</v>
@@ -4119,10 +4116,10 @@
         <v>95</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4137,13 +4134,13 @@
         <v>7208</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4152,13 +4149,13 @@
         <v>23664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4167,13 +4164,13 @@
         <v>30873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4185,13 @@
         <v>221700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -4203,13 +4200,13 @@
         <v>276817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -4218,13 +4215,13 @@
         <v>498517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4289,13 @@
         <v>573801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -4307,13 +4304,13 @@
         <v>518200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>985</v>
@@ -4322,13 +4319,13 @@
         <v>1092001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4340,13 @@
         <v>10599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4358,13 +4355,13 @@
         <v>10559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4373,13 +4370,13 @@
         <v>21157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4394,13 +4391,13 @@
         <v>173223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -4409,13 +4406,13 @@
         <v>247457</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -4424,13 +4421,13 @@
         <v>420680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4495,13 @@
         <v>793382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -4513,13 +4510,13 @@
         <v>822165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>1543</v>
@@ -4528,13 +4525,13 @@
         <v>1615547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4549,13 +4546,13 @@
         <v>9854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4564,13 +4561,13 @@
         <v>13773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>159</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4579,13 +4576,13 @@
         <v>23627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>159</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>284</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4597,13 @@
         <v>142549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4615,13 +4612,13 @@
         <v>213816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -4630,13 +4627,13 @@
         <v>356366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4701,13 @@
         <v>2717540</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>295</v>
+        <v>124</v>
       </c>
       <c r="H24" s="7">
         <v>2387</v>
@@ -4719,28 +4716,28 @@
         <v>2575731</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>4930</v>
       </c>
       <c r="N24" s="7">
-        <v>5293271</v>
+        <v>5293272</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4752,13 @@
         <v>35064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4770,13 +4767,13 @@
         <v>53290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>304</v>
+        <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -4785,13 +4782,13 @@
         <v>88354</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,43 +4803,43 @@
         <v>671493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>859</v>
       </c>
       <c r="I26" s="7">
-        <v>926183</v>
+        <v>926182</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1487</v>
       </c>
       <c r="N26" s="7">
-        <v>1597675</v>
+        <v>1597676</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4869,7 +4866,7 @@
         <v>3295</v>
       </c>
       <c r="I27" s="7">
-        <v>3555204</v>
+        <v>3555203</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>36</v>
@@ -4884,7 +4881,7 @@
         <v>6501</v>
       </c>
       <c r="N27" s="7">
-        <v>6979301</v>
+        <v>6979302</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>36</v>
@@ -4898,7 +4895,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB8D9F6-D191-4317-A02F-BE6D1B7FEAC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE39AA-F093-4592-A9F6-8BF09FD20707}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4936,7 +4933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5043,13 +5040,13 @@
         <v>90943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -5058,13 +5055,13 @@
         <v>90170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5073,13 +5070,13 @@
         <v>181114</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5091,13 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5115,7 +5112,7 @@
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -5124,13 +5121,13 @@
         <v>2848</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5142,13 @@
         <v>23819</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -5160,13 +5157,13 @@
         <v>21135</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>42</v>
@@ -5175,13 +5172,13 @@
         <v>44954</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,10 +5249,10 @@
         <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -5264,13 +5261,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5279,13 +5276,13 @@
         <v>917428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5297,13 @@
         <v>10290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
+        <v>274</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -5315,13 +5312,13 @@
         <v>7332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -5330,13 +5327,13 @@
         <v>17621</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5348,13 @@
         <v>70979</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -5366,13 +5363,13 @@
         <v>110749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5381,13 +5378,13 @@
         <v>181729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5452,13 @@
         <v>842018</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H12" s="7">
         <v>774</v>
@@ -5470,13 +5467,13 @@
         <v>822296</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M12" s="7">
         <v>1562</v>
@@ -5485,13 +5482,13 @@
         <v>1664314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5503,13 @@
         <v>17251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>371</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5521,13 +5518,13 @@
         <v>18042</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5536,13 +5533,13 @@
         <v>35293</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>369</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5554,13 @@
         <v>157335</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>185</v>
@@ -5572,13 +5569,13 @@
         <v>199207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -5587,13 +5584,13 @@
         <v>356542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5658,13 @@
         <v>630276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>591</v>
@@ -5676,13 +5673,13 @@
         <v>628757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M16" s="7">
         <v>1169</v>
@@ -5691,13 +5688,13 @@
         <v>1259033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5709,13 @@
         <v>6626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5727,13 +5724,13 @@
         <v>10343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -5742,13 +5739,13 @@
         <v>16969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5760,13 @@
         <v>121684</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -5778,13 +5775,13 @@
         <v>144640</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -5793,13 +5790,13 @@
         <v>266324</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5864,13 @@
         <v>779828</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>733</v>
@@ -5882,13 +5879,13 @@
         <v>793982</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>1511</v>
@@ -5897,13 +5894,13 @@
         <v>1573810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5915,13 @@
         <v>11248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>162</v>
+        <v>414</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5933,13 +5930,13 @@
         <v>22785</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5948,13 +5945,13 @@
         <v>34032</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5966,13 @@
         <v>144565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -5984,13 +5981,13 @@
         <v>225193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>238</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -5999,13 +5996,13 @@
         <v>369758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6070,13 @@
         <v>2819094</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>2625</v>
@@ -6088,13 +6085,13 @@
         <v>2776603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>5316</v>
@@ -6103,13 +6100,13 @@
         <v>5595699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6121,13 @@
         <v>46208</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -6139,13 +6136,13 @@
         <v>60556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>397</v>
+        <v>135</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -6154,13 +6151,13 @@
         <v>106764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6172,13 @@
         <v>518382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>655</v>
@@ -6190,13 +6187,13 @@
         <v>700924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -6205,13 +6202,13 @@
         <v>1219306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>449</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,7 +6264,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6288,7 +6285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A931DD-118E-400B-B50F-56988EA55C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354AA2B8-D3E8-4017-A557-637BCA99E239}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6305,7 +6302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6412,13 +6409,13 @@
         <v>82073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -6427,13 +6424,13 @@
         <v>109816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="M4" s="7">
         <v>295</v>
@@ -6442,13 +6439,13 @@
         <v>191889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,7 +6466,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6478,13 +6475,13 @@
         <v>1708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6493,13 +6490,13 @@
         <v>1708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>467</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,13 +6511,13 @@
         <v>19909</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -6529,13 +6526,13 @@
         <v>19209</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -6544,13 +6541,13 @@
         <v>39118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,13 +6615,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -6633,13 +6630,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>202</v>
+        <v>477</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -6648,13 +6645,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,10 +6666,10 @@
         <v>1788</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>79</v>
@@ -6684,13 +6681,13 @@
         <v>2283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>157</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6699,13 +6696,13 @@
         <v>4071</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>156</v>
+        <v>485</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>303</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,10 +6720,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H10" s="7">
         <v>205</v>
@@ -6735,13 +6732,13 @@
         <v>126930</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M10" s="7">
         <v>325</v>
@@ -6750,10 +6747,10 @@
         <v>234804</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>494</v>
@@ -6875,13 +6872,13 @@
         <v>3910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6890,13 +6887,13 @@
         <v>6437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>506</v>
+        <v>419</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6905,10 +6902,10 @@
         <v>10347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>507</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>53</v>
@@ -6926,13 +6923,13 @@
         <v>212089</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -6941,13 +6938,13 @@
         <v>250861</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M14" s="7">
         <v>561</v>
@@ -6956,13 +6953,13 @@
         <v>462950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7027,13 @@
         <v>587619</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>765</v>
@@ -7045,13 +7042,13 @@
         <v>558519</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7060,13 +7057,13 @@
         <v>1146137</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7078,13 @@
         <v>5381</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7096,13 +7093,13 @@
         <v>2039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>257</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -7114,10 +7111,10 @@
         <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,13 +7129,13 @@
         <v>135772</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>531</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -7147,13 +7144,13 @@
         <v>309382</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
@@ -7162,13 +7159,13 @@
         <v>445154</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7233,13 @@
         <v>766060</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H20" s="7">
         <v>1145</v>
@@ -7251,13 +7248,13 @@
         <v>844121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>1943</v>
@@ -7266,13 +7263,13 @@
         <v>1610180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>541</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,13 +7284,13 @@
         <v>9539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>284</v>
+        <v>368</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -7302,13 +7299,13 @@
         <v>18888</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>544</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>105</v>
+        <v>545</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -7317,13 +7314,13 @@
         <v>28427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>417</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>545</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>546</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7338,13 +7335,13 @@
         <v>189804</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>548</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>549</v>
+        <v>29</v>
       </c>
       <c r="H22" s="7">
         <v>388</v>
@@ -7353,13 +7350,13 @@
         <v>284027</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -7368,13 +7365,13 @@
         <v>473832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7439,13 @@
         <v>2697221</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>4043</v>
@@ -7457,13 +7454,13 @@
         <v>2776461</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M24" s="7">
         <v>6723</v>
@@ -7472,13 +7469,13 @@
         <v>5473682</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>230</v>
+        <v>541</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7493,13 +7490,13 @@
         <v>20619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -7508,13 +7505,13 @@
         <v>31355</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -7523,13 +7520,13 @@
         <v>51974</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7544,13 +7541,13 @@
         <v>665449</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>569</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H26" s="7">
         <v>1264</v>
@@ -7559,13 +7556,13 @@
         <v>990409</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>1934</v>
@@ -7574,13 +7571,13 @@
         <v>1655858</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,7 +7633,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22CF4215-F3D3-47F2-9121-1B30DA9D1D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8E1E3B4-C92F-41F6-A2F9-E3849401D894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{755B0A42-E414-42C3-AF49-3CF3974C2840}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D09FBBCF-5FAF-4F52-A207-DF8385F31237}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="580">
   <si>
     <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>83,22%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>Sí acudieron a mi domicilio</t>
@@ -125,1648 +125,1660 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>13,48%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>27,23%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2016 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>Población que ha utilizado un servicio de urgencias en el último año por un problema o enfermedad propio en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -2178,7 +2190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38AC1E23-7761-4A43-8E2C-C73D836C2085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8374222-B6D3-4ACF-9150-F95910248378}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2595,7 +2607,7 @@
         <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2622,13 @@
         <v>95806</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -2625,13 +2637,13 @@
         <v>111509</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>208</v>
@@ -2640,13 +2652,13 @@
         <v>207315</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,7 +2714,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2714,13 +2726,13 @@
         <v>775181</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>640</v>
@@ -2729,13 +2741,13 @@
         <v>684461</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1363</v>
@@ -2744,13 +2756,13 @@
         <v>1459642</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2777,13 @@
         <v>8762</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -2780,13 +2792,13 @@
         <v>9977</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2795,13 +2807,13 @@
         <v>18739</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2828,13 @@
         <v>177857</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
@@ -2831,13 +2843,13 @@
         <v>273954</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>424</v>
@@ -2846,13 +2858,13 @@
         <v>451812</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2920,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2920,13 +2932,13 @@
         <v>554855</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>516</v>
@@ -2935,13 +2947,13 @@
         <v>507302</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1040</v>
@@ -2950,13 +2962,13 @@
         <v>1062157</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,10 +2986,10 @@
         <v>25</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2986,13 +2998,13 @@
         <v>10122</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3001,13 +3013,13 @@
         <v>15718</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3034,13 @@
         <v>118058</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>169</v>
@@ -3037,13 +3049,13 @@
         <v>166417</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>281</v>
@@ -3052,13 +3064,13 @@
         <v>284475</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3126,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3126,13 +3138,13 @@
         <v>804045</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>780</v>
@@ -3141,13 +3153,13 @@
         <v>811170</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>1626</v>
@@ -3156,13 +3168,13 @@
         <v>1615215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3189,13 @@
         <v>4353</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3192,13 +3204,13 @@
         <v>12973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M21" s="7">
         <v>17</v>
@@ -3207,13 +3219,13 @@
         <v>17326</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3240,13 @@
         <v>132939</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -3243,13 +3255,13 @@
         <v>214469</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>347</v>
@@ -3258,13 +3270,13 @@
         <v>347409</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3344,13 @@
         <v>2715312</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>2493</v>
@@ -3347,13 +3359,13 @@
         <v>2554248</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>5157</v>
@@ -3362,13 +3374,13 @@
         <v>5269561</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>92</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3395,13 @@
         <v>19609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3398,13 +3410,13 @@
         <v>35452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -3413,13 +3425,13 @@
         <v>55062</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3446,13 @@
         <v>540737</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>769</v>
@@ -3449,13 +3461,13 @@
         <v>788556</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>1299</v>
@@ -3464,13 +3476,13 @@
         <v>1329293</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,7 +3538,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F38548F-9502-4A8C-A66A-ED16319B588E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D991F4E-A80D-4097-B26E-A541ED403271}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3564,7 +3576,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3671,13 +3683,13 @@
         <v>86853</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>73</v>
@@ -3686,10 +3698,10 @@
         <v>83375</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>173</v>
@@ -3701,13 +3713,13 @@
         <v>170228</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3734,13 @@
         <v>1604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3737,13 +3749,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3752,13 +3764,13 @@
         <v>2735</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3785,13 @@
         <v>26581</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>25</v>
@@ -3788,13 +3800,13 @@
         <v>27399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>143</v>
+        <v>186</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M6" s="7">
         <v>52</v>
@@ -3803,13 +3815,13 @@
         <v>53980</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3889,13 @@
         <v>474465</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H8" s="7">
         <v>396</v>
@@ -3892,13 +3904,13 @@
         <v>420288</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>842</v>
@@ -3907,13 +3919,13 @@
         <v>894753</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3940,13 @@
         <v>5800</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3943,13 +3955,13 @@
         <v>4163</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -3958,13 +3970,13 @@
         <v>9963</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3991,13 @@
         <v>107439</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H10" s="7">
         <v>151</v>
@@ -3994,13 +4006,13 @@
         <v>160693</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M10" s="7">
         <v>252</v>
@@ -4009,13 +4021,13 @@
         <v>268132</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,7 +4083,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4083,13 +4095,13 @@
         <v>789038</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H12" s="7">
         <v>670</v>
@@ -4098,13 +4110,13 @@
         <v>731703</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>1395</v>
@@ -4113,13 +4125,13 @@
         <v>1520741</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4146,13 @@
         <v>7208</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -4149,13 +4161,13 @@
         <v>23664</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4164,13 +4176,13 @@
         <v>30873</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4197,13 @@
         <v>221700</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>250</v>
@@ -4200,13 +4212,13 @@
         <v>276817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -4215,13 +4227,13 @@
         <v>498517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4289,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4289,13 +4301,13 @@
         <v>573801</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>465</v>
@@ -4304,13 +4316,13 @@
         <v>518200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>985</v>
@@ -4319,13 +4331,13 @@
         <v>1092001</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4352,13 @@
         <v>10599</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -4355,13 +4367,13 @@
         <v>10559</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>21</v>
@@ -4370,13 +4382,13 @@
         <v>21157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4403,13 @@
         <v>173223</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>115</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>229</v>
@@ -4406,13 +4418,13 @@
         <v>247457</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M18" s="7">
         <v>387</v>
@@ -4421,13 +4433,13 @@
         <v>420680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4483,7 +4495,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4495,13 +4507,13 @@
         <v>793382</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>783</v>
@@ -4510,13 +4522,13 @@
         <v>822165</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>1543</v>
@@ -4525,13 +4537,13 @@
         <v>1615547</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4558,13 @@
         <v>9854</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4561,13 +4573,13 @@
         <v>13773</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4576,13 +4588,13 @@
         <v>23627</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4609,13 @@
         <v>142549</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -4612,13 +4624,13 @@
         <v>213816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -4627,13 +4639,13 @@
         <v>356366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4713,13 @@
         <v>2717540</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>2387</v>
@@ -4716,13 +4728,13 @@
         <v>2575731</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>4930</v>
@@ -4731,13 +4743,13 @@
         <v>5293272</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4764,13 @@
         <v>35064</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -4767,7 +4779,7 @@
         <v>53290</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>298</v>
@@ -4785,7 +4797,7 @@
         <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>301</v>
@@ -4806,25 +4818,25 @@
         <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>210</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>859</v>
       </c>
       <c r="I26" s="7">
-        <v>926182</v>
+        <v>926183</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>1487</v>
@@ -4833,13 +4845,13 @@
         <v>1597676</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4878,7 @@
         <v>3295</v>
       </c>
       <c r="I27" s="7">
-        <v>3555203</v>
+        <v>3555204</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>36</v>
@@ -4895,7 +4907,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39DE39AA-F093-4592-A9F6-8BF09FD20707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F3DC92-8ABE-4425-A6CE-50F537E6C2A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4933,7 +4945,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5040,13 +5052,13 @@
         <v>90943</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>93</v>
@@ -5055,13 +5067,13 @@
         <v>90170</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>182</v>
@@ -5070,13 +5082,13 @@
         <v>181114</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5103,7 @@
         <v>794</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>319</v>
+        <v>103</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -5172,13 +5184,13 @@
         <v>44954</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,13 +5258,13 @@
         <v>476030</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -5261,13 +5273,13 @@
         <v>441398</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>892</v>
@@ -5276,7 +5288,7 @@
         <v>917428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>339</v>
@@ -5297,7 +5309,7 @@
         <v>10290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>341</v>
@@ -5312,7 +5324,7 @@
         <v>7332</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>343</v>
@@ -5330,10 +5342,10 @@
         <v>345</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5360,13 @@
         <v>70979</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>110</v>
@@ -5363,13 +5375,13 @@
         <v>110749</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>179</v>
@@ -5378,7 +5390,7 @@
         <v>181729</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>354</v>
@@ -5440,7 +5452,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5473,7 +5485,7 @@
         <v>360</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>122</v>
       </c>
       <c r="M12" s="7">
         <v>1562</v>
@@ -5482,13 +5494,13 @@
         <v>1664314</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,10 +5515,10 @@
         <v>17251</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>231</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>365</v>
@@ -5521,7 +5533,7 @@
         <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>367</v>
@@ -5569,13 +5581,13 @@
         <v>199207</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>374</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>327</v>
@@ -5584,13 +5596,13 @@
         <v>356542</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5658,13 +5670,13 @@
         <v>630276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>591</v>
@@ -5673,13 +5685,13 @@
         <v>628757</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>1169</v>
@@ -5688,13 +5700,13 @@
         <v>1259033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5721,13 @@
         <v>6626</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5724,10 +5736,10 @@
         <v>10343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>393</v>
@@ -5745,7 +5757,7 @@
         <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,10 +5775,10 @@
         <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>135</v>
@@ -5775,13 +5787,13 @@
         <v>144640</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -5790,13 +5802,13 @@
         <v>266324</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,7 +5864,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5864,13 +5876,13 @@
         <v>779828</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H20" s="7">
         <v>733</v>
@@ -5879,13 +5891,13 @@
         <v>793982</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
         <v>1511</v>
@@ -5894,13 +5906,13 @@
         <v>1573810</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5927,13 @@
         <v>11248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H21" s="7">
         <v>20</v>
@@ -5930,13 +5942,13 @@
         <v>22785</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>416</v>
+        <v>227</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -5948,10 +5960,10 @@
         <v>368</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5978,13 @@
         <v>144565</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>31</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -5981,13 +5993,13 @@
         <v>225193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>346</v>
@@ -5996,13 +6008,13 @@
         <v>369758</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6070,13 +6082,13 @@
         <v>2819094</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>2625</v>
@@ -6085,13 +6097,13 @@
         <v>2776603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="M24" s="7">
         <v>5316</v>
@@ -6100,13 +6112,13 @@
         <v>5595699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6133,13 @@
         <v>46208</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>23</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -6136,13 +6148,13 @@
         <v>60556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>98</v>
@@ -6151,13 +6163,13 @@
         <v>106764</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6184,13 @@
         <v>518382</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>655</v>
@@ -6187,13 +6199,13 @@
         <v>700924</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -6202,13 +6214,13 @@
         <v>1219306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,7 +6276,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +6297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354AA2B8-D3E8-4017-A557-637BCA99E239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BD1DAC-5E84-48D3-B9C6-3EA2C59871AE}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6302,7 +6314,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6409,13 +6421,13 @@
         <v>82073</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>201</v>
@@ -6424,13 +6436,13 @@
         <v>109816</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>295</v>
@@ -6439,13 +6451,13 @@
         <v>191889</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,7 +6478,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6475,13 +6487,13 @@
         <v>1708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -6490,13 +6502,13 @@
         <v>1708</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6523,13 @@
         <v>19909</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -6526,13 +6538,13 @@
         <v>19209</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -6541,13 +6553,13 @@
         <v>39118</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6627,13 @@
         <v>438221</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H8" s="7">
         <v>786</v>
@@ -6630,13 +6642,13 @@
         <v>463749</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M8" s="7">
         <v>1274</v>
@@ -6645,13 +6657,13 @@
         <v>901971</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6678,13 @@
         <v>1788</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6681,13 +6693,13 @@
         <v>2283</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>484</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6699,7 +6711,7 @@
         <v>485</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>486</v>
@@ -6809,7 +6821,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6872,13 +6884,13 @@
         <v>3910</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6887,13 +6899,13 @@
         <v>6437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>419</v>
+        <v>507</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -6902,13 +6914,13 @@
         <v>10347</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>53</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6935,13 @@
         <v>212089</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="H14" s="7">
         <v>358</v>
@@ -6938,13 +6950,13 @@
         <v>250861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M14" s="7">
         <v>561</v>
@@ -6953,13 +6965,13 @@
         <v>462950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>331</v>
+        <v>516</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7027,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7027,13 +7039,13 @@
         <v>587619</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="H16" s="7">
         <v>765</v>
@@ -7042,13 +7054,13 @@
         <v>558519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="M16" s="7">
         <v>1308</v>
@@ -7057,13 +7069,13 @@
         <v>1146137</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>521</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,13 +7090,13 @@
         <v>5381</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>522</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>523</v>
+        <v>51</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7093,13 +7105,13 @@
         <v>2039</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>483</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -7108,13 +7120,13 @@
         <v>7420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7141,13 @@
         <v>135772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>239</v>
+        <v>533</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -7144,13 +7156,13 @@
         <v>309382</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M18" s="7">
         <v>402</v>
@@ -7159,13 +7171,13 @@
         <v>445154</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,7 +7233,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7233,13 +7245,13 @@
         <v>766060</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>537</v>
+        <v>473</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>1145</v>
@@ -7248,13 +7260,13 @@
         <v>844121</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>1943</v>
@@ -7263,13 +7275,13 @@
         <v>1610180</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,10 +7296,10 @@
         <v>9539</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>505</v>
+        <v>270</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>368</v>
@@ -7299,13 +7311,13 @@
         <v>18888</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -7314,13 +7326,13 @@
         <v>28427</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>417</v>
+        <v>551</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>442</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7347,13 @@
         <v>189804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>388</v>
@@ -7350,13 +7362,13 @@
         <v>284027</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
@@ -7365,13 +7377,13 @@
         <v>473832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7451,13 @@
         <v>2697221</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>555</v>
+        <v>475</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="H24" s="7">
         <v>4043</v>
@@ -7454,13 +7466,13 @@
         <v>2776461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
         <v>6723</v>
@@ -7469,13 +7481,13 @@
         <v>5473682</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7502,13 @@
         <v>20619</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>414</v>
+        <v>506</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -7505,13 +7517,13 @@
         <v>31355</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>414</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="M25" s="7">
         <v>74</v>
@@ -7520,13 +7532,13 @@
         <v>51974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>566</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7553,13 @@
         <v>665449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="H26" s="7">
         <v>1264</v>
@@ -7556,13 +7568,13 @@
         <v>990409</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="M26" s="7">
         <v>1934</v>
@@ -7571,13 +7583,13 @@
         <v>1655858</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,7 +7645,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
